--- a/sources/data/_raw/maindata.xlsx
+++ b/sources/data/_raw/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20191111-veterans/sources/data/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E7E4C2-B780-E844-ABCD-B8B10C1731DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FADCBA-B6FA-A14B-AD25-804F569A63D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
   </bookViews>
   <sheets>
     <sheet name="veteran_suicides" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C64E46-F6EB-FA47-82FD-8C12E5A65700}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +570,7 @@
       <c r="A9">
         <v>2012</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9">
@@ -578,7 +581,7 @@
       <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10">
@@ -589,7 +592,7 @@
       <c r="A11">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>25.7</v>
       </c>
       <c r="D11">
@@ -600,7 +603,7 @@
       <c r="A12">
         <v>2015</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>20.399999999999999</v>
       </c>
       <c r="D12">
@@ -611,7 +614,7 @@
       <c r="A13">
         <v>2016</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>28.2</v>
       </c>
       <c r="D13">
@@ -622,7 +625,7 @@
       <c r="A14">
         <v>2017</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D14">
@@ -638,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DC46D8-BEC1-CE4E-B8D8-35CF1881B72C}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
